--- a/server/prices/leidtogi/feed.xlsx
+++ b/server/prices/leidtogi/feed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="810" windowWidth="19635" windowHeight="7260"/>
+    <workbookView xWindow="720" yWindow="870" windowWidth="19635" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Абразив" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="698">
   <si>
     <t>Наименование</t>
   </si>
@@ -1185,21 +1185,12 @@
     <t>Шлифовальный круг по камню, бетону, чугуну 1,27 230х8х22</t>
   </si>
   <si>
-    <t>Макс. рабочая скорость 40 м/с</t>
-  </si>
-  <si>
     <t>Характеристики</t>
   </si>
   <si>
     <t>Вес</t>
   </si>
   <si>
-    <t>Макс. рабочая скорость 50-60 м/с</t>
-  </si>
-  <si>
-    <t>Макс. рабочая скорость 80 м/с</t>
-  </si>
-  <si>
     <t>Обдирочный круг 125х20х32 (80 м/с)</t>
   </si>
   <si>
@@ -1738,6 +1729,387 @@
   </si>
   <si>
     <t>В упаковке</t>
+  </si>
+  <si>
+    <t>obdirochnye-krugi</t>
+  </si>
+  <si>
+    <t>shlifovanie</t>
+  </si>
+  <si>
+    <t>segmenty</t>
+  </si>
+  <si>
+    <t>chashki</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ТИП 5С</t>
+  </si>
+  <si>
+    <t>ТИП 6С</t>
+  </si>
+  <si>
+    <t>Макс. рабочая скорость 63 м/с</t>
+  </si>
+  <si>
+    <t>Макс. рабочая скорость 30 м/с, 60 м/с</t>
+  </si>
+  <si>
+    <t>Макс. рабочая скорость 18 м/с</t>
+  </si>
+  <si>
+    <t>Макс. рабочая скорость от 10 м/с до 60 м/с</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;115 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;0,8 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;115 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;1 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;115 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;1,2 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;115 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;2 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;115 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;1,6 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;115 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;2,5 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;115 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;3 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;125 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;0,8 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;125 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;1 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;125 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;1,1 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;125 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;1,2 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;125 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;1,6 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;125 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;2 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;125 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;2,5 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;125 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;3 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;150 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;1,6 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;150 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;2 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;150 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;2,5 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;180 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;1,2 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;150 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;3 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22/32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;180 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;1,6 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;180 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;2 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;180 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;2,5 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;180 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;3 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;200 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;2 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;200 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;2,5 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;200 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;3 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;230 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;1,6 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;230 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;1,8 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;230 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;1,9 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;230 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;2 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;230 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;2,5 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;230 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;3 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;300 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;3 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;350 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;3,5 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;25/32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;100 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;350 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;3,5 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;25/32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;350 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;4 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;25/32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;100 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;350 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;4 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;25/32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;355 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;4 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;25,4 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;100 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;355 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;4 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;25,4 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;400 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;4 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;25 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;100 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;400 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;4 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;25 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;400 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;4 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;400 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;5 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;500 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;5 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;150 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;3 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;115 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;6 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;125 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;6 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;150 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;6 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;150 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;8 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;180 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;6 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;180 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;8 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;230 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;6 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;230 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;8 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;22 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;40 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;63 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;20 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;20 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>Макс. рабочая скорость 40 м/с&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;40 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;63 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;20 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;20 &lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;40 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;80 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;20 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;20 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;40 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;100 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;20 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;20 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;40 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;125 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;20 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;40 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;125 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;25 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;40 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;150 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;20 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;40 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;150 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;25 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;40 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;175 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;20 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;40 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;175 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;25 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;40 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;200 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;20 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;40 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;200 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;25 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;40 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;250 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;20 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;40 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;250 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;25 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;40 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;250 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;40 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;76 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;40 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;300 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;40 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;76 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;40 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;300 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;40 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;127 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;40 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;350 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;40 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;76 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;40 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;350 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;40 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;127 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;40 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;400 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;40 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;127 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;40 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;400 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;40 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;203 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;40 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;400 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;50 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;127 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;40 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;400 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;50 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;203 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;40 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;400 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;63 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;203 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;50-60 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;125 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;20 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;125 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;20 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;50-60 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;125 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;25 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;50-60 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;150 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;20 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;150 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;20 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;50-60 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;150 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;25 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;80 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;150 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;25 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;50-60 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;175 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;20 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;50-60 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;175 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;25 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;50-60 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;200 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;20 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;50-60 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;250 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;20 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;50-60 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;300 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;40 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;76 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;50-60 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;350 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;40 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;127 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;50-60 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;400 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;40 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;127 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;50-60 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;400 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;40 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;203 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;50-60 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;500 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;50 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;203 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;50-60 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;500 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;50 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;305 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;50-60 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;500 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;63 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;203 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;50-60 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;500 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;63 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;305 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;50-60 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;500 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;75 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;203 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;50-60 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;500 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;80 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;203 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;50-60 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;500 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;80 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;305 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;50-60 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;600 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;63 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;203 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;50-60 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;600 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;63 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;305 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;50-60 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;600 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;75 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;305 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;50-60 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;600 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;80 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;305 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;30 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;150 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;4 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;30 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;150 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;6 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;30 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;150 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;8 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;30 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;150 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;13 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;30 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;200 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;8 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;30 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;200 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;10 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;30 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;250 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;6 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;30 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;250 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;8 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;32 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Макс. рабочая скорость&lt;/td&gt;&lt;td&gt;30 м/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр диска&lt;/td&gt;&lt;td&gt;250 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Толщина диска&lt;/td&gt;&lt;td&gt;8 мм&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диаметр посадочного отверстия&lt;/td&gt;&lt;td&gt;76 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;</t>
   </si>
 </sst>
 </file>
@@ -1747,7 +2119,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1806,6 +2178,23 @@
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1827,7 +2216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1874,12 +2263,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1909,9 +2346,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1931,6 +2365,63 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -1944,6 +2435,1054 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1266825" y="28889325"/>
+          <a:ext cx="228600" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1266825" y="28889325"/>
+          <a:ext cx="228600" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1266825" y="28889325"/>
+          <a:ext cx="228600" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1266825" y="28889325"/>
+          <a:ext cx="228600" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4429125" y="28879800"/>
+          <a:ext cx="466725" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4429125" y="28879800"/>
+          <a:ext cx="466725" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1162050" y="29327475"/>
+          <a:ext cx="409575" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1162050" y="29327475"/>
+          <a:ext cx="409575" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4457700" y="29317950"/>
+          <a:ext cx="409575" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 163" descr="чашка тип11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1200150" y="30051375"/>
+          <a:ext cx="342900" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 167" descr="чашка тип11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1200150" y="30051375"/>
+          <a:ext cx="342900" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 173" descr="чашка тип11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1200150" y="30051375"/>
+          <a:ext cx="342900" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 190" descr="чашка тип11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1200150" y="29879925"/>
+          <a:ext cx="342900" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 191" descr="чашка тип11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1200150" y="30051375"/>
+          <a:ext cx="342900" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 218" descr="чашка тип11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4467225" y="30051375"/>
+          <a:ext cx="342900" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 236" descr="чашка тип11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4467225" y="29879925"/>
+          <a:ext cx="342900" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2235,8 +3774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="I155" sqref="I155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2247,7 +3786,7 @@
     <col min="6" max="6" width="12.42578125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="11.7109375" customWidth="1"/>
@@ -2279,22 +3818,22 @@
         <v>335</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="14" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>289</v>
       </c>
@@ -2323,19 +3862,19 @@
       <c r="H2" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>393</v>
+      <c r="I2" s="40" t="s">
+        <v>586</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K2" s="16">
+        <v>521</v>
+      </c>
+      <c r="K2" s="15">
         <v>41</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="15">
         <v>0.03</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="16">
         <v>200</v>
       </c>
     </row>
@@ -2369,18 +3908,18 @@
         <v>336</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>393</v>
+        <v>587</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K3" s="16">
+        <v>521</v>
+      </c>
+      <c r="K3" s="15">
         <v>41</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="15">
         <v>0.03</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="16">
         <v>200</v>
       </c>
     </row>
@@ -2414,18 +3953,18 @@
         <v>336</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>393</v>
+        <v>588</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K4" s="16">
+        <v>521</v>
+      </c>
+      <c r="K4" s="15">
         <v>41</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <v>0.03</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="16">
         <v>200</v>
       </c>
     </row>
@@ -2459,18 +3998,18 @@
         <v>336</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>393</v>
+        <v>590</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K5" s="16">
+        <v>521</v>
+      </c>
+      <c r="K5" s="15">
         <v>41</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="15">
         <v>0.04</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="16">
         <v>200</v>
       </c>
     </row>
@@ -2504,18 +4043,18 @@
         <v>336</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>393</v>
+        <v>589</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K6" s="16">
+        <v>521</v>
+      </c>
+      <c r="K6" s="15">
         <v>41</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <v>0.05</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="16">
         <v>200</v>
       </c>
     </row>
@@ -2549,18 +4088,18 @@
         <v>336</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>393</v>
+        <v>591</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K7" s="16">
+        <v>521</v>
+      </c>
+      <c r="K7" s="15">
         <v>41</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="15">
         <v>0.06</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="16">
         <v>100</v>
       </c>
     </row>
@@ -2594,18 +4133,18 @@
         <v>336</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>393</v>
+        <v>592</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K8" s="16">
+        <v>521</v>
+      </c>
+      <c r="K8" s="15">
         <v>41</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="15">
         <v>0.08</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="16">
         <v>100</v>
       </c>
     </row>
@@ -2639,18 +4178,18 @@
         <v>336</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>393</v>
+        <v>593</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K9" s="16">
+        <v>521</v>
+      </c>
+      <c r="K9" s="15">
         <v>41</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="15">
         <v>0.03</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="16">
         <v>200</v>
       </c>
     </row>
@@ -2684,18 +4223,18 @@
         <v>336</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>393</v>
+        <v>594</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K10" s="16">
+        <v>521</v>
+      </c>
+      <c r="K10" s="15">
         <v>41</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="15">
         <v>0.03</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="16">
         <v>200</v>
       </c>
     </row>
@@ -2726,18 +4265,18 @@
         <v>336</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>393</v>
+        <v>595</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K11" s="16">
+        <v>521</v>
+      </c>
+      <c r="K11" s="15">
         <v>41</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <v>0.03</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="16">
         <v>200</v>
       </c>
     </row>
@@ -2771,18 +4310,18 @@
         <v>336</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>393</v>
+        <v>596</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K12" s="16">
+        <v>521</v>
+      </c>
+      <c r="K12" s="15">
         <v>41</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="15">
         <v>0.04</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="16">
         <v>200</v>
       </c>
     </row>
@@ -2816,18 +4355,18 @@
         <v>336</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>393</v>
+        <v>597</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K13" s="16">
+        <v>521</v>
+      </c>
+      <c r="K13" s="15">
         <v>41</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="15">
         <v>0.05</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="16">
         <v>200</v>
       </c>
     </row>
@@ -2861,18 +4400,18 @@
         <v>336</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>393</v>
+        <v>598</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K14" s="16">
+        <v>521</v>
+      </c>
+      <c r="K14" s="15">
         <v>41</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="15">
         <v>0.06</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="16">
         <v>200</v>
       </c>
     </row>
@@ -2906,18 +4445,18 @@
         <v>336</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>393</v>
+        <v>599</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K15" s="16">
+        <v>521</v>
+      </c>
+      <c r="K15" s="15">
         <v>41</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="16">
         <v>100</v>
       </c>
     </row>
@@ -2951,18 +4490,18 @@
         <v>336</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>393</v>
+        <v>600</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K16" s="16">
+        <v>521</v>
+      </c>
+      <c r="K16" s="15">
         <v>41</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="15">
         <v>0.09</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="16">
         <v>100</v>
       </c>
     </row>
@@ -2996,18 +4535,18 @@
         <v>336</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>393</v>
+        <v>601</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K17" s="16">
+        <v>521</v>
+      </c>
+      <c r="K17" s="15">
         <v>41</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="16">
         <v>50</v>
       </c>
     </row>
@@ -3041,18 +4580,18 @@
         <v>336</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>393</v>
+        <v>602</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K18" s="16">
+        <v>521</v>
+      </c>
+      <c r="K18" s="15">
         <v>41</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="15">
         <v>0.09</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="16">
         <v>50</v>
       </c>
     </row>
@@ -3086,18 +4625,18 @@
         <v>336</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>393</v>
+        <v>603</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K19" s="16">
+        <v>521</v>
+      </c>
+      <c r="K19" s="15">
         <v>41</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="15">
         <v>0.11</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="17">
         <v>25</v>
       </c>
     </row>
@@ -3131,18 +4670,18 @@
         <v>336</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>393</v>
+        <v>605</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K20" s="16">
+        <v>521</v>
+      </c>
+      <c r="K20" s="15">
         <v>41</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="15">
         <v>0.13</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="16">
         <v>25</v>
       </c>
     </row>
@@ -3176,18 +4715,18 @@
         <v>336</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>393</v>
+        <v>604</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K21" s="16">
+        <v>521</v>
+      </c>
+      <c r="K21" s="15">
         <v>41</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="15">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="17">
         <v>50</v>
       </c>
     </row>
@@ -3221,18 +4760,18 @@
         <v>336</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>393</v>
+        <v>606</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K22" s="16">
+        <v>521</v>
+      </c>
+      <c r="K22" s="15">
         <v>41</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="18">
         <v>0.1</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="16">
         <v>50</v>
       </c>
     </row>
@@ -3266,18 +4805,18 @@
         <v>336</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>393</v>
+        <v>607</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K23" s="16">
+        <v>521</v>
+      </c>
+      <c r="K23" s="15">
         <v>41</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L23" s="15">
         <v>0.13</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="16">
         <v>50</v>
       </c>
     </row>
@@ -3311,18 +4850,18 @@
         <v>336</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>393</v>
+        <v>608</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K24" s="16">
+        <v>521</v>
+      </c>
+      <c r="K24" s="15">
         <v>41</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L24" s="15">
         <v>0.16</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M24" s="16">
         <v>25</v>
       </c>
     </row>
@@ -3356,18 +4895,18 @@
         <v>336</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>393</v>
+        <v>609</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K25" s="16">
+        <v>521</v>
+      </c>
+      <c r="K25" s="15">
         <v>41</v>
       </c>
-      <c r="L25" s="16">
+      <c r="L25" s="15">
         <v>0.19</v>
       </c>
-      <c r="M25" s="17">
+      <c r="M25" s="16">
         <v>25</v>
       </c>
     </row>
@@ -3401,18 +4940,18 @@
         <v>336</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>393</v>
+        <v>610</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K26" s="16">
+        <v>521</v>
+      </c>
+      <c r="K26" s="15">
         <v>41</v>
       </c>
-      <c r="L26" s="16">
+      <c r="L26" s="15">
         <v>0.16</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="16">
         <v>35</v>
       </c>
     </row>
@@ -3446,18 +4985,18 @@
         <v>336</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>393</v>
+        <v>611</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K27" s="16">
+        <v>521</v>
+      </c>
+      <c r="K27" s="15">
         <v>41</v>
       </c>
-      <c r="L27" s="16">
+      <c r="L27" s="15">
         <v>0.19</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M27" s="16">
         <v>25</v>
       </c>
     </row>
@@ -3491,18 +5030,18 @@
         <v>336</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>393</v>
+        <v>612</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K28" s="16">
+        <v>521</v>
+      </c>
+      <c r="K28" s="15">
         <v>41</v>
       </c>
-      <c r="L28" s="16">
+      <c r="L28" s="15">
         <v>0.23</v>
       </c>
-      <c r="M28" s="17">
+      <c r="M28" s="16">
         <v>25</v>
       </c>
     </row>
@@ -3536,18 +5075,18 @@
         <v>336</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>393</v>
+        <v>613</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K29" s="16">
+        <v>521</v>
+      </c>
+      <c r="K29" s="15">
         <v>41</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L29" s="15">
         <v>0.15</v>
       </c>
-      <c r="M29" s="20">
+      <c r="M29" s="19">
         <v>50</v>
       </c>
     </row>
@@ -3581,18 +5120,18 @@
         <v>336</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>393</v>
+        <v>614</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K30" s="16">
+        <v>521</v>
+      </c>
+      <c r="K30" s="15">
         <v>41</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L30" s="15">
         <v>0.21</v>
       </c>
-      <c r="M30" s="20">
+      <c r="M30" s="19">
         <v>50</v>
       </c>
     </row>
@@ -3626,18 +5165,18 @@
         <v>336</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>393</v>
+        <v>615</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K31" s="16">
+        <v>521</v>
+      </c>
+      <c r="K31" s="15">
         <v>41</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L31" s="15">
         <v>0.21</v>
       </c>
-      <c r="M31" s="20">
+      <c r="M31" s="19">
         <v>50</v>
       </c>
     </row>
@@ -3671,18 +5210,18 @@
         <v>336</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>393</v>
+        <v>616</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K32" s="16">
+        <v>521</v>
+      </c>
+      <c r="K32" s="15">
         <v>41</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="15">
         <v>0.21</v>
       </c>
-      <c r="M32" s="20">
+      <c r="M32" s="19">
         <v>50</v>
       </c>
     </row>
@@ -3716,18 +5255,18 @@
         <v>336</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>393</v>
+        <v>617</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K33" s="16">
+        <v>521</v>
+      </c>
+      <c r="K33" s="15">
         <v>41</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L33" s="15">
         <v>0.26</v>
       </c>
-      <c r="M33" s="17">
+      <c r="M33" s="16">
         <v>25</v>
       </c>
     </row>
@@ -3761,18 +5300,18 @@
         <v>336</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>393</v>
+        <v>618</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K34" s="16">
+        <v>521</v>
+      </c>
+      <c r="K34" s="15">
         <v>41</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="15">
         <v>0.31</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="16">
         <v>25</v>
       </c>
     </row>
@@ -3806,18 +5345,18 @@
         <v>336</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>393</v>
+        <v>619</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K35" s="16">
+        <v>521</v>
+      </c>
+      <c r="K35" s="15">
         <v>41</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L35" s="15">
         <v>0.53</v>
       </c>
-      <c r="M35" s="17">
+      <c r="M35" s="16">
         <v>15</v>
       </c>
     </row>
@@ -3851,18 +5390,18 @@
         <v>336</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>393</v>
+        <v>620</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K36" s="16">
+        <v>521</v>
+      </c>
+      <c r="K36" s="15">
         <v>41</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L36" s="15">
         <v>0.84</v>
       </c>
-      <c r="M36" s="17">
+      <c r="M36" s="16">
         <v>10</v>
       </c>
     </row>
@@ -3896,18 +5435,18 @@
         <v>336</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>393</v>
+        <v>621</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K37" s="16">
+        <v>521</v>
+      </c>
+      <c r="K37" s="15">
         <v>41</v>
       </c>
-      <c r="L37" s="16">
+      <c r="L37" s="15">
         <v>0.84</v>
       </c>
-      <c r="M37" s="17">
+      <c r="M37" s="16">
         <v>10</v>
       </c>
     </row>
@@ -3941,18 +5480,18 @@
         <v>336</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>393</v>
+        <v>622</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K38" s="16">
+        <v>521</v>
+      </c>
+      <c r="K38" s="15">
         <v>41</v>
       </c>
-      <c r="L38" s="16">
+      <c r="L38" s="15">
         <v>0.96</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M38" s="16">
         <v>10</v>
       </c>
     </row>
@@ -3986,18 +5525,18 @@
         <v>336</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>393</v>
+        <v>623</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K39" s="16">
+        <v>521</v>
+      </c>
+      <c r="K39" s="15">
         <v>41</v>
       </c>
-      <c r="L39" s="16">
+      <c r="L39" s="15">
         <v>0.96</v>
       </c>
-      <c r="M39" s="17">
+      <c r="M39" s="16">
         <v>10</v>
       </c>
     </row>
@@ -4031,18 +5570,18 @@
         <v>336</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>393</v>
+        <v>624</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K40" s="16">
+        <v>521</v>
+      </c>
+      <c r="K40" s="15">
         <v>41</v>
       </c>
-      <c r="L40" s="16">
+      <c r="L40" s="15">
         <v>0.99</v>
       </c>
-      <c r="M40" s="18">
+      <c r="M40" s="17">
         <v>10</v>
       </c>
     </row>
@@ -4076,18 +5615,18 @@
         <v>336</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>393</v>
+        <v>625</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K41" s="16">
+        <v>521</v>
+      </c>
+      <c r="K41" s="15">
         <v>41</v>
       </c>
-      <c r="L41" s="16">
+      <c r="L41" s="15">
         <v>0.99</v>
       </c>
-      <c r="M41" s="18">
+      <c r="M41" s="17">
         <v>10</v>
       </c>
     </row>
@@ -4121,18 +5660,18 @@
         <v>336</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>393</v>
+        <v>626</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K42" s="16">
+        <v>521</v>
+      </c>
+      <c r="K42" s="15">
         <v>41</v>
       </c>
-      <c r="L42" s="16">
+      <c r="L42" s="15">
         <v>1.26</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M42" s="16">
         <v>10</v>
       </c>
     </row>
@@ -4166,18 +5705,18 @@
         <v>336</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>393</v>
+        <v>627</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K43" s="16">
+        <v>521</v>
+      </c>
+      <c r="K43" s="15">
         <v>41</v>
       </c>
-      <c r="L43" s="16">
+      <c r="L43" s="15">
         <v>1.26</v>
       </c>
-      <c r="M43" s="17">
+      <c r="M43" s="16">
         <v>10</v>
       </c>
     </row>
@@ -4211,18 +5750,18 @@
         <v>336</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>393</v>
+        <v>628</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K44" s="16">
+        <v>521</v>
+      </c>
+      <c r="K44" s="15">
         <v>41</v>
       </c>
-      <c r="L44" s="16">
+      <c r="L44" s="15">
         <v>1.25</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M44" s="16">
         <v>10</v>
       </c>
     </row>
@@ -4256,18 +5795,18 @@
         <v>336</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>393</v>
+        <v>629</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K45" s="16">
+        <v>521</v>
+      </c>
+      <c r="K45" s="15">
         <v>41</v>
       </c>
-      <c r="L45" s="16">
+      <c r="L45" s="15">
         <v>1.56</v>
       </c>
-      <c r="M45" s="18">
+      <c r="M45" s="17">
         <v>10</v>
       </c>
     </row>
@@ -4301,18 +5840,18 @@
         <v>336</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>393</v>
+        <v>630</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K46" s="16">
+        <v>521</v>
+      </c>
+      <c r="K46" s="15">
         <v>41</v>
       </c>
-      <c r="L46" s="16">
+      <c r="L46" s="15">
         <v>2.4500000000000002</v>
       </c>
-      <c r="M46" s="20">
+      <c r="M46" s="19">
         <v>5</v>
       </c>
     </row>
@@ -4346,18 +5885,18 @@
         <v>336</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>393</v>
+        <v>588</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K47" s="16">
+        <v>521</v>
+      </c>
+      <c r="K47" s="15">
         <v>41</v>
       </c>
-      <c r="L47" s="16">
+      <c r="L47" s="15">
         <v>0.03</v>
       </c>
-      <c r="M47" s="17">
+      <c r="M47" s="16">
         <v>200</v>
       </c>
     </row>
@@ -4391,18 +5930,18 @@
         <v>336</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>393</v>
+        <v>590</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K48" s="16">
+        <v>521</v>
+      </c>
+      <c r="K48" s="15">
         <v>41</v>
       </c>
-      <c r="L48" s="16">
+      <c r="L48" s="15">
         <v>0.04</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M48" s="16">
         <v>200</v>
       </c>
     </row>
@@ -4436,18 +5975,18 @@
         <v>336</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>393</v>
+        <v>591</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K49" s="16">
+        <v>521</v>
+      </c>
+      <c r="K49" s="15">
         <v>41</v>
       </c>
-      <c r="L49" s="16">
+      <c r="L49" s="15">
         <v>0.06</v>
       </c>
-      <c r="M49" s="17">
+      <c r="M49" s="16">
         <v>100</v>
       </c>
     </row>
@@ -4481,18 +6020,18 @@
         <v>336</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>393</v>
+        <v>592</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K50" s="16">
+        <v>521</v>
+      </c>
+      <c r="K50" s="15">
         <v>41</v>
       </c>
-      <c r="L50" s="16">
+      <c r="L50" s="15">
         <v>0.08</v>
       </c>
-      <c r="M50" s="17">
+      <c r="M50" s="16">
         <v>100</v>
       </c>
     </row>
@@ -4526,18 +6065,18 @@
         <v>336</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>393</v>
+        <v>596</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K51" s="16">
+        <v>521</v>
+      </c>
+      <c r="K51" s="15">
         <v>41</v>
       </c>
-      <c r="L51" s="16">
+      <c r="L51" s="15">
         <v>0.04</v>
       </c>
-      <c r="M51" s="17">
+      <c r="M51" s="16">
         <v>200</v>
       </c>
     </row>
@@ -4571,18 +6110,18 @@
         <v>336</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>393</v>
+        <v>597</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K52" s="16">
+        <v>521</v>
+      </c>
+      <c r="K52" s="15">
         <v>41</v>
       </c>
-      <c r="L52" s="16">
+      <c r="L52" s="15">
         <v>0.05</v>
       </c>
-      <c r="M52" s="17">
+      <c r="M52" s="16">
         <v>200</v>
       </c>
     </row>
@@ -4616,18 +6155,18 @@
         <v>336</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>393</v>
+        <v>599</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K53" s="16">
+        <v>521</v>
+      </c>
+      <c r="K53" s="15">
         <v>41</v>
       </c>
-      <c r="L53" s="16">
+      <c r="L53" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M53" s="17">
+      <c r="M53" s="16">
         <v>100</v>
       </c>
     </row>
@@ -4661,18 +6200,18 @@
         <v>336</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>393</v>
+        <v>600</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K54" s="16">
+        <v>521</v>
+      </c>
+      <c r="K54" s="15">
         <v>41</v>
       </c>
-      <c r="L54" s="16">
+      <c r="L54" s="15">
         <v>0.09</v>
       </c>
-      <c r="M54" s="17">
+      <c r="M54" s="16">
         <v>100</v>
       </c>
     </row>
@@ -4706,18 +6245,18 @@
         <v>336</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>393</v>
+        <v>606</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K55" s="16">
+        <v>521</v>
+      </c>
+      <c r="K55" s="15">
         <v>41</v>
       </c>
-      <c r="L55" s="19">
+      <c r="L55" s="18">
         <v>0.1</v>
       </c>
-      <c r="M55" s="20">
+      <c r="M55" s="19">
         <v>50</v>
       </c>
     </row>
@@ -4751,18 +6290,18 @@
         <v>336</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>393</v>
+        <v>607</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K56" s="16">
+        <v>521</v>
+      </c>
+      <c r="K56" s="15">
         <v>41</v>
       </c>
-      <c r="L56" s="16">
+      <c r="L56" s="15">
         <v>0.13</v>
       </c>
-      <c r="M56" s="20">
+      <c r="M56" s="19">
         <v>50</v>
       </c>
     </row>
@@ -4796,18 +6335,18 @@
         <v>336</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>393</v>
+        <v>608</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K57" s="16">
+        <v>521</v>
+      </c>
+      <c r="K57" s="15">
         <v>41</v>
       </c>
-      <c r="L57" s="16">
+      <c r="L57" s="15">
         <v>0.16</v>
       </c>
-      <c r="M57" s="20">
+      <c r="M57" s="19">
         <v>25</v>
       </c>
     </row>
@@ -4841,18 +6380,18 @@
         <v>336</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>393</v>
+        <v>609</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K58" s="16">
+        <v>521</v>
+      </c>
+      <c r="K58" s="15">
         <v>41</v>
       </c>
-      <c r="L58" s="16">
+      <c r="L58" s="15">
         <v>0.19</v>
       </c>
-      <c r="M58" s="20">
+      <c r="M58" s="19">
         <v>25</v>
       </c>
     </row>
@@ -4886,18 +6425,18 @@
         <v>336</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>393</v>
+        <v>616</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K59" s="16">
+        <v>521</v>
+      </c>
+      <c r="K59" s="15">
         <v>41</v>
       </c>
-      <c r="L59" s="16">
+      <c r="L59" s="15">
         <v>0.21</v>
       </c>
-      <c r="M59" s="20">
+      <c r="M59" s="19">
         <v>25</v>
       </c>
     </row>
@@ -4931,18 +6470,18 @@
         <v>336</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>393</v>
+        <v>617</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K60" s="16">
+        <v>521</v>
+      </c>
+      <c r="K60" s="15">
         <v>41</v>
       </c>
-      <c r="L60" s="16">
+      <c r="L60" s="15">
         <v>0.26</v>
       </c>
-      <c r="M60" s="20">
+      <c r="M60" s="19">
         <v>25</v>
       </c>
     </row>
@@ -4976,18 +6515,18 @@
         <v>336</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>393</v>
+        <v>618</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K61" s="16">
+        <v>521</v>
+      </c>
+      <c r="K61" s="15">
         <v>41</v>
       </c>
-      <c r="L61" s="16">
+      <c r="L61" s="15">
         <v>0.31</v>
       </c>
-      <c r="M61" s="20">
+      <c r="M61" s="19">
         <v>25</v>
       </c>
     </row>
@@ -5021,18 +6560,18 @@
         <v>336</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>393</v>
+        <v>589</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K62" s="16">
+        <v>521</v>
+      </c>
+      <c r="K62" s="15">
         <v>41</v>
       </c>
-      <c r="L62" s="16">
+      <c r="L62" s="15">
         <v>0.05</v>
       </c>
-      <c r="M62" s="20">
+      <c r="M62" s="19">
         <v>200</v>
       </c>
     </row>
@@ -5066,18 +6605,18 @@
         <v>336</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>393</v>
+        <v>591</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K63" s="16">
+        <v>521</v>
+      </c>
+      <c r="K63" s="15">
         <v>41</v>
       </c>
-      <c r="L63" s="16">
+      <c r="L63" s="15">
         <v>0.06</v>
       </c>
-      <c r="M63" s="20">
+      <c r="M63" s="19">
         <v>100</v>
       </c>
     </row>
@@ -5111,18 +6650,18 @@
         <v>336</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>393</v>
+        <v>592</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K64" s="16">
+        <v>521</v>
+      </c>
+      <c r="K64" s="15">
         <v>41</v>
       </c>
-      <c r="L64" s="16">
+      <c r="L64" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M64" s="17">
+      <c r="M64" s="16">
         <v>100</v>
       </c>
     </row>
@@ -5156,18 +6695,18 @@
         <v>336</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>393</v>
+        <v>598</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K65" s="16">
+        <v>521</v>
+      </c>
+      <c r="K65" s="15">
         <v>41</v>
       </c>
-      <c r="L65" s="16">
+      <c r="L65" s="15">
         <v>0.05</v>
       </c>
-      <c r="M65" s="20">
+      <c r="M65" s="19">
         <v>200</v>
       </c>
     </row>
@@ -5201,18 +6740,18 @@
         <v>336</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>393</v>
+        <v>599</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K66" s="16">
+        <v>521</v>
+      </c>
+      <c r="K66" s="15">
         <v>41</v>
       </c>
-      <c r="L66" s="16">
+      <c r="L66" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M66" s="20">
+      <c r="M66" s="19">
         <v>100</v>
       </c>
     </row>
@@ -5246,18 +6785,18 @@
         <v>336</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>393</v>
+        <v>600</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K67" s="16">
+        <v>521</v>
+      </c>
+      <c r="K67" s="15">
         <v>41</v>
       </c>
-      <c r="L67" s="16">
+      <c r="L67" s="15">
         <v>0.08</v>
       </c>
-      <c r="M67" s="17">
+      <c r="M67" s="16">
         <v>100</v>
       </c>
     </row>
@@ -5291,18 +6830,18 @@
         <v>336</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>393</v>
+        <v>602</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K68" s="16">
+        <v>521</v>
+      </c>
+      <c r="K68" s="15">
         <v>41</v>
       </c>
-      <c r="L68" s="16">
+      <c r="L68" s="15">
         <v>0.08</v>
       </c>
-      <c r="M68" s="17">
+      <c r="M68" s="16">
         <v>50</v>
       </c>
     </row>
@@ -5336,18 +6875,18 @@
         <v>336</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>393</v>
+        <v>603</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K69" s="16">
+        <v>521</v>
+      </c>
+      <c r="K69" s="15">
         <v>41</v>
       </c>
-      <c r="L69" s="19">
+      <c r="L69" s="18">
         <v>0.1</v>
       </c>
-      <c r="M69" s="17">
+      <c r="M69" s="16">
         <v>25</v>
       </c>
     </row>
@@ -5381,18 +6920,18 @@
         <v>336</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>393</v>
+        <v>631</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K70" s="16">
+        <v>521</v>
+      </c>
+      <c r="K70" s="15">
         <v>41</v>
       </c>
-      <c r="L70" s="16">
+      <c r="L70" s="15">
         <v>0.12</v>
       </c>
-      <c r="M70" s="17">
+      <c r="M70" s="16">
         <v>25</v>
       </c>
     </row>
@@ -5426,18 +6965,18 @@
         <v>336</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>393</v>
+        <v>607</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K71" s="16">
+        <v>521</v>
+      </c>
+      <c r="K71" s="15">
         <v>41</v>
       </c>
-      <c r="L71" s="16">
+      <c r="L71" s="15">
         <v>0.11</v>
       </c>
-      <c r="M71" s="17">
+      <c r="M71" s="16">
         <v>50</v>
       </c>
     </row>
@@ -5471,18 +7010,18 @@
         <v>336</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>393</v>
+        <v>608</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K72" s="16">
+        <v>521</v>
+      </c>
+      <c r="K72" s="15">
         <v>41</v>
       </c>
-      <c r="L72" s="16">
+      <c r="L72" s="15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M72" s="17">
+      <c r="M72" s="16">
         <v>25</v>
       </c>
     </row>
@@ -5516,18 +7055,18 @@
         <v>336</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>393</v>
+        <v>609</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K73" s="16">
+        <v>521</v>
+      </c>
+      <c r="K73" s="15">
         <v>41</v>
       </c>
-      <c r="L73" s="16">
+      <c r="L73" s="15">
         <v>0.17</v>
       </c>
-      <c r="M73" s="17">
+      <c r="M73" s="16">
         <v>25</v>
       </c>
     </row>
@@ -5561,18 +7100,18 @@
         <v>336</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>393</v>
+        <v>610</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K74" s="16">
+        <v>521</v>
+      </c>
+      <c r="K74" s="15">
         <v>41</v>
       </c>
-      <c r="L74" s="16">
+      <c r="L74" s="15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M74" s="17">
+      <c r="M74" s="16">
         <v>35</v>
       </c>
     </row>
@@ -5606,18 +7145,18 @@
         <v>336</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>393</v>
+        <v>611</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K75" s="16">
+        <v>521</v>
+      </c>
+      <c r="K75" s="15">
         <v>41</v>
       </c>
-      <c r="L75" s="16">
+      <c r="L75" s="15">
         <v>0.17</v>
       </c>
-      <c r="M75" s="17">
+      <c r="M75" s="16">
         <v>25</v>
       </c>
     </row>
@@ -5651,18 +7190,18 @@
         <v>336</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>393</v>
+        <v>612</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K76" s="16">
+        <v>521</v>
+      </c>
+      <c r="K76" s="15">
         <v>41</v>
       </c>
-      <c r="L76" s="16">
+      <c r="L76" s="15">
         <v>0.21</v>
       </c>
-      <c r="M76" s="17">
+      <c r="M76" s="16">
         <v>25</v>
       </c>
     </row>
@@ -5696,18 +7235,18 @@
         <v>336</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>393</v>
+        <v>616</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K77" s="16">
+        <v>521</v>
+      </c>
+      <c r="K77" s="15">
         <v>41</v>
       </c>
-      <c r="L77" s="16">
+      <c r="L77" s="15">
         <v>0.19</v>
       </c>
-      <c r="M77" s="17">
+      <c r="M77" s="16">
         <v>50</v>
       </c>
     </row>
@@ -5741,18 +7280,18 @@
         <v>336</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>393</v>
+        <v>617</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K78" s="16">
+        <v>521</v>
+      </c>
+      <c r="K78" s="15">
         <v>41</v>
       </c>
-      <c r="L78" s="16">
+      <c r="L78" s="15">
         <v>0.23</v>
       </c>
-      <c r="M78" s="17">
+      <c r="M78" s="16">
         <v>25</v>
       </c>
     </row>
@@ -5786,18 +7325,18 @@
         <v>336</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>393</v>
+        <v>618</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K79" s="16">
+        <v>521</v>
+      </c>
+      <c r="K79" s="15">
         <v>41</v>
       </c>
-      <c r="L79" s="16">
+      <c r="L79" s="15">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M79" s="17">
+      <c r="M79" s="16">
         <v>25</v>
       </c>
     </row>
@@ -5831,18 +7370,18 @@
         <v>336</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>393</v>
+        <v>619</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K80" s="16">
+        <v>521</v>
+      </c>
+      <c r="K80" s="15">
         <v>41</v>
       </c>
-      <c r="L80" s="16">
+      <c r="L80" s="15">
         <v>0.47</v>
       </c>
-      <c r="M80" s="17">
+      <c r="M80" s="16">
         <v>15</v>
       </c>
     </row>
@@ -5876,18 +7415,18 @@
         <v>336</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>393</v>
+        <v>628</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K81" s="16">
+        <v>521</v>
+      </c>
+      <c r="K81" s="15">
         <v>41</v>
       </c>
-      <c r="L81" s="16">
+      <c r="L81" s="15">
         <v>1.1200000000000001</v>
       </c>
-      <c r="M81" s="17">
+      <c r="M81" s="16">
         <v>10</v>
       </c>
     </row>
@@ -5921,18 +7460,18 @@
         <v>336</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>393</v>
+        <v>632</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="K82" s="20">
+        <v>522</v>
+      </c>
+      <c r="K82" s="19">
         <v>27</v>
       </c>
-      <c r="L82" s="16">
+      <c r="L82" s="15">
         <v>0.15</v>
       </c>
-      <c r="M82" s="17">
+      <c r="M82" s="16">
         <v>40</v>
       </c>
     </row>
@@ -5966,18 +7505,18 @@
         <v>336</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>393</v>
+        <v>633</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="K83" s="20">
+        <v>522</v>
+      </c>
+      <c r="K83" s="19">
         <v>27</v>
       </c>
-      <c r="L83" s="16">
+      <c r="L83" s="15">
         <v>0.18</v>
       </c>
-      <c r="M83" s="17">
+      <c r="M83" s="16">
         <v>40</v>
       </c>
     </row>
@@ -6011,18 +7550,18 @@
         <v>336</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>393</v>
+        <v>634</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="K84" s="20">
+        <v>522</v>
+      </c>
+      <c r="K84" s="19">
         <v>27</v>
       </c>
-      <c r="L84" s="16">
+      <c r="L84" s="15">
         <v>0.26</v>
       </c>
-      <c r="M84" s="17">
+      <c r="M84" s="16">
         <v>20</v>
       </c>
     </row>
@@ -6056,18 +7595,18 @@
         <v>336</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>393</v>
+        <v>635</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="K85" s="20">
+        <v>522</v>
+      </c>
+      <c r="K85" s="19">
         <v>27</v>
       </c>
-      <c r="L85" s="16">
+      <c r="L85" s="15">
         <v>0.35</v>
       </c>
-      <c r="M85" s="17">
+      <c r="M85" s="16">
         <v>10</v>
       </c>
     </row>
@@ -6101,18 +7640,18 @@
         <v>336</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>393</v>
+        <v>636</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="K86" s="20">
+        <v>522</v>
+      </c>
+      <c r="K86" s="19">
         <v>27</v>
       </c>
-      <c r="L86" s="16">
+      <c r="L86" s="15">
         <v>0.38</v>
       </c>
-      <c r="M86" s="17">
+      <c r="M86" s="16">
         <v>20</v>
       </c>
     </row>
@@ -6146,18 +7685,18 @@
         <v>336</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>393</v>
+        <v>637</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="K87" s="20">
+        <v>522</v>
+      </c>
+      <c r="K87" s="19">
         <v>27</v>
       </c>
-      <c r="L87" s="19">
+      <c r="L87" s="18">
         <v>0.5</v>
       </c>
-      <c r="M87" s="17">
+      <c r="M87" s="16">
         <v>10</v>
       </c>
     </row>
@@ -6191,18 +7730,18 @@
         <v>336</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>393</v>
+        <v>638</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="K88" s="20">
+        <v>522</v>
+      </c>
+      <c r="K88" s="19">
         <v>27</v>
       </c>
-      <c r="L88" s="16">
+      <c r="L88" s="15">
         <v>0.62</v>
       </c>
-      <c r="M88" s="17">
+      <c r="M88" s="16">
         <v>20</v>
       </c>
     </row>
@@ -6236,18 +7775,18 @@
         <v>336</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>393</v>
+        <v>639</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="K89" s="20">
+        <v>522</v>
+      </c>
+      <c r="K89" s="19">
         <v>27</v>
       </c>
-      <c r="L89" s="16">
+      <c r="L89" s="15">
         <v>0.83</v>
       </c>
-      <c r="M89" s="17">
+      <c r="M89" s="16">
         <v>10</v>
       </c>
     </row>
@@ -6281,18 +7820,18 @@
         <v>336</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>393</v>
+        <v>632</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="K90" s="20">
+        <v>522</v>
+      </c>
+      <c r="K90" s="19">
         <v>27</v>
       </c>
-      <c r="L90" s="16">
+      <c r="L90" s="15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M90" s="17">
+      <c r="M90" s="16">
         <v>40</v>
       </c>
     </row>
@@ -6326,18 +7865,18 @@
         <v>336</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>393</v>
+        <v>633</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="K91" s="20">
+        <v>522</v>
+      </c>
+      <c r="K91" s="19">
         <v>27</v>
       </c>
-      <c r="L91" s="16">
+      <c r="L91" s="15">
         <v>0.18</v>
       </c>
-      <c r="M91" s="17">
+      <c r="M91" s="16">
         <v>40</v>
       </c>
     </row>
@@ -6371,18 +7910,18 @@
         <v>336</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>393</v>
+        <v>634</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="K92" s="20">
+        <v>522</v>
+      </c>
+      <c r="K92" s="19">
         <v>27</v>
       </c>
-      <c r="L92" s="16">
+      <c r="L92" s="15">
         <v>0.26</v>
       </c>
-      <c r="M92" s="17">
+      <c r="M92" s="16">
         <v>20</v>
       </c>
     </row>
@@ -6416,18 +7955,18 @@
         <v>336</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>393</v>
+        <v>635</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="K93" s="20">
+        <v>522</v>
+      </c>
+      <c r="K93" s="19">
         <v>27</v>
       </c>
-      <c r="L93" s="16">
+      <c r="L93" s="15">
         <v>0.35</v>
       </c>
-      <c r="M93" s="17">
+      <c r="M93" s="16">
         <v>10</v>
       </c>
     </row>
@@ -6461,18 +8000,18 @@
         <v>336</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>393</v>
+        <v>636</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="K94" s="20">
+        <v>522</v>
+      </c>
+      <c r="K94" s="19">
         <v>27</v>
       </c>
-      <c r="L94" s="16">
+      <c r="L94" s="15">
         <v>0.38</v>
       </c>
-      <c r="M94" s="17">
+      <c r="M94" s="16">
         <v>20</v>
       </c>
     </row>
@@ -6506,18 +8045,18 @@
         <v>336</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>393</v>
+        <v>637</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="K95" s="20">
+        <v>522</v>
+      </c>
+      <c r="K95" s="19">
         <v>27</v>
       </c>
-      <c r="L95" s="16">
+      <c r="L95" s="15">
         <v>0.45</v>
       </c>
-      <c r="M95" s="17">
+      <c r="M95" s="16">
         <v>20</v>
       </c>
     </row>
@@ -6551,18 +8090,18 @@
         <v>336</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>393</v>
+        <v>638</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="K96" s="20">
+        <v>522</v>
+      </c>
+      <c r="K96" s="19">
         <v>27</v>
       </c>
-      <c r="L96" s="16">
+      <c r="L96" s="15">
         <v>0.62</v>
       </c>
-      <c r="M96" s="17">
+      <c r="M96" s="16">
         <v>20</v>
       </c>
     </row>
@@ -6596,24 +8135,24 @@
         <v>336</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>393</v>
+        <v>639</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="K97" s="20">
+        <v>522</v>
+      </c>
+      <c r="K97" s="19">
         <v>27</v>
       </c>
-      <c r="L97" s="16">
+      <c r="L97" s="15">
         <v>0.83</v>
       </c>
-      <c r="M97" s="17">
+      <c r="M97" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>110</v>
@@ -6641,13 +8180,24 @@
         <v>336</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J98" s="1"/>
+        <v>640</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K98" s="19">
+        <v>1</v>
+      </c>
+      <c r="L98" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M98" s="16">
+        <v>80</v>
+      </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>111</v>
@@ -6675,13 +8225,24 @@
         <v>336</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J99" s="1"/>
+        <v>641</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K99" s="19">
+        <v>1</v>
+      </c>
+      <c r="L99" s="21">
+        <v>0.24</v>
+      </c>
+      <c r="M99" s="16">
+        <v>45</v>
+      </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>112</v>
@@ -6709,13 +8270,24 @@
         <v>336</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J100" s="1"/>
+        <v>642</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K100" s="19">
+        <v>1</v>
+      </c>
+      <c r="L100" s="21">
+        <v>0.38</v>
+      </c>
+      <c r="M100" s="16">
+        <v>25</v>
+      </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>113</v>
@@ -6743,13 +8315,24 @@
         <v>336</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J101" s="1"/>
+        <v>643</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K101" s="19">
+        <v>1</v>
+      </c>
+      <c r="L101" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M101" s="16">
+        <v>20</v>
+      </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>114</v>
@@ -6777,13 +8360,24 @@
         <v>336</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J102" s="1"/>
+        <v>644</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K102" s="19">
+        <v>1</v>
+      </c>
+      <c r="L102" s="21">
+        <v>0.72</v>
+      </c>
+      <c r="M102" s="16">
+        <v>16</v>
+      </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>115</v>
@@ -6811,13 +8405,24 @@
         <v>336</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J103" s="1"/>
+        <v>645</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K103" s="19">
+        <v>1</v>
+      </c>
+      <c r="L103" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="M103" s="22" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>116</v>
@@ -6845,13 +8450,24 @@
         <v>336</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J104" s="1"/>
+        <v>646</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K104" s="19">
+        <v>1</v>
+      </c>
+      <c r="L104" s="21">
+        <v>1.06</v>
+      </c>
+      <c r="M104" s="22" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>117</v>
@@ -6879,13 +8495,24 @@
         <v>336</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J105" s="1"/>
+        <v>647</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K105" s="19">
+        <v>1</v>
+      </c>
+      <c r="L105" s="21">
+        <v>1.17</v>
+      </c>
+      <c r="M105" s="22" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>118</v>
@@ -6913,13 +8540,24 @@
         <v>336</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J106" s="1"/>
+        <v>648</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K106" s="19">
+        <v>1</v>
+      </c>
+      <c r="L106" s="21">
+        <v>1.46</v>
+      </c>
+      <c r="M106" s="22" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>119</v>
@@ -6947,13 +8585,24 @@
         <v>336</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J107" s="1"/>
+        <v>649</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K107" s="19">
+        <v>1</v>
+      </c>
+      <c r="L107" s="21">
+        <v>1.54</v>
+      </c>
+      <c r="M107" s="22" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>120</v>
@@ -6981,13 +8630,24 @@
         <v>336</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J108" s="1"/>
+        <v>650</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K108" s="19">
+        <v>1</v>
+      </c>
+      <c r="L108" s="21">
+        <v>1.92</v>
+      </c>
+      <c r="M108" s="22" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>121</v>
@@ -7015,13 +8675,24 @@
         <v>336</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J109" s="1"/>
+        <v>651</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K109" s="19">
+        <v>1</v>
+      </c>
+      <c r="L109" s="21">
+        <v>2.42</v>
+      </c>
+      <c r="M109" s="22" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>122</v>
@@ -7049,13 +8720,24 @@
         <v>336</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J110" s="1"/>
+        <v>652</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K110" s="19">
+        <v>1</v>
+      </c>
+      <c r="L110" s="21">
+        <v>3.03</v>
+      </c>
+      <c r="M110" s="22" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>123</v>
@@ -7083,13 +8765,24 @@
         <v>336</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J111" s="1"/>
+        <v>653</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K111" s="19">
+        <v>1</v>
+      </c>
+      <c r="L111" s="21">
+        <v>4.47</v>
+      </c>
+      <c r="M111" s="22" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>124</v>
@@ -7117,13 +8810,24 @@
         <v>336</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J112" s="1"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K112" s="19">
+        <v>1</v>
+      </c>
+      <c r="L112" s="21">
+        <v>6.64</v>
+      </c>
+      <c r="M112" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>125</v>
@@ -7151,13 +8855,24 @@
         <v>336</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J113" s="1"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K113" s="19">
+        <v>1</v>
+      </c>
+      <c r="L113" s="21">
+        <v>5.82</v>
+      </c>
+      <c r="M113" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>126</v>
@@ -7185,13 +8900,24 @@
         <v>336</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J114" s="1"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K114" s="19">
+        <v>1</v>
+      </c>
+      <c r="L114" s="21">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M114" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>127</v>
@@ -7219,13 +8945,24 @@
         <v>336</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J115" s="1"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K115" s="19">
+        <v>1</v>
+      </c>
+      <c r="L115" s="21">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="M115" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>128</v>
@@ -7253,13 +8990,24 @@
         <v>336</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J116" s="1"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K116" s="19">
+        <v>1</v>
+      </c>
+      <c r="L116" s="21">
+        <v>11.34</v>
+      </c>
+      <c r="M116" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>129</v>
@@ -7287,13 +9035,24 @@
         <v>336</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J117" s="1"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K117" s="19">
+        <v>1</v>
+      </c>
+      <c r="L117" s="21">
+        <v>9.36</v>
+      </c>
+      <c r="M117" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>130</v>
@@ -7321,13 +9080,24 @@
         <v>336</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J118" s="1"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K118" s="19">
+        <v>1</v>
+      </c>
+      <c r="L118" s="21">
+        <v>14.2</v>
+      </c>
+      <c r="M118" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>131</v>
@@ -7355,13 +9125,24 @@
         <v>336</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J119" s="1"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K119" s="19">
+        <v>1</v>
+      </c>
+      <c r="L119" s="21">
+        <v>11.7</v>
+      </c>
+      <c r="M119" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>132</v>
@@ -7389,13 +9170,24 @@
         <v>336</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J120" s="1"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K120" s="19">
+        <v>1</v>
+      </c>
+      <c r="L120" s="21">
+        <v>14.75</v>
+      </c>
+      <c r="M120" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>133</v>
@@ -7423,13 +9215,24 @@
         <v>336</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J121" s="1"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K121" s="19">
+        <v>1</v>
+      </c>
+      <c r="L121" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M121" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>134</v>
@@ -7457,13 +9260,24 @@
         <v>336</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J122" s="1"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K122" s="19">
+        <v>1</v>
+      </c>
+      <c r="L122" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M122" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>135</v>
@@ -7491,13 +9305,24 @@
         <v>336</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J123" s="1"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K123" s="19">
+        <v>1</v>
+      </c>
+      <c r="L123" s="21">
+        <v>0.72</v>
+      </c>
+      <c r="M123" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>136</v>
@@ -7525,13 +9350,24 @@
         <v>336</v>
       </c>
       <c r="I124" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K124" s="19">
+        <v>1</v>
+      </c>
+      <c r="L124" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="M124" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="J124" s="1"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>137</v>
@@ -7559,13 +9395,24 @@
         <v>336</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J125" s="1"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K125" s="19">
+        <v>1</v>
+      </c>
+      <c r="L125" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="M125" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>138</v>
@@ -7593,13 +9440,24 @@
         <v>336</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J126" s="1"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K126" s="19">
+        <v>1</v>
+      </c>
+      <c r="L126" s="21">
+        <v>1.06</v>
+      </c>
+      <c r="M126" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>139</v>
@@ -7627,13 +9485,24 @@
         <v>336</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J127" s="1"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K127" s="19">
+        <v>1</v>
+      </c>
+      <c r="L127" s="21">
+        <v>1.06</v>
+      </c>
+      <c r="M127" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>140</v>
@@ -7661,13 +9530,24 @@
         <v>336</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J128" s="1"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+        <v>670</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K128" s="19">
+        <v>1</v>
+      </c>
+      <c r="L128" s="21">
+        <v>1.17</v>
+      </c>
+      <c r="M128" s="22" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>141</v>
@@ -7695,13 +9575,24 @@
         <v>336</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J129" s="1"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K129" s="19">
+        <v>1</v>
+      </c>
+      <c r="L129" s="21">
+        <v>1.46</v>
+      </c>
+      <c r="M129" s="22" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>142</v>
@@ -7729,13 +9620,24 @@
         <v>336</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J130" s="1"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K130" s="19">
+        <v>1</v>
+      </c>
+      <c r="L130" s="21">
+        <v>1.36</v>
+      </c>
+      <c r="M130" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>143</v>
@@ -7763,13 +9665,24 @@
         <v>336</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J131" s="1"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K131" s="19">
+        <v>1</v>
+      </c>
+      <c r="L131" s="21">
+        <v>2.42</v>
+      </c>
+      <c r="M131" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>144</v>
@@ -7797,13 +9710,24 @@
         <v>336</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J132" s="1"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+        <v>674</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K132" s="19">
+        <v>1</v>
+      </c>
+      <c r="L132" s="21">
+        <v>6.64</v>
+      </c>
+      <c r="M132" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>145</v>
@@ -7831,13 +9755,24 @@
         <v>336</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J133" s="1"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K133" s="19">
+        <v>1</v>
+      </c>
+      <c r="L133" s="21">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="M133" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>146</v>
@@ -7865,13 +9800,24 @@
         <v>336</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J134" s="1"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K134" s="19">
+        <v>1</v>
+      </c>
+      <c r="L134" s="21">
+        <v>11.34</v>
+      </c>
+      <c r="M134" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>147</v>
@@ -7899,13 +9845,24 @@
         <v>336</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J135" s="1"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K135" s="19">
+        <v>1</v>
+      </c>
+      <c r="L135" s="21">
+        <v>9.36</v>
+      </c>
+      <c r="M135" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>148</v>
@@ -7933,13 +9890,24 @@
         <v>336</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J136" s="1"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K136" s="19">
+        <v>1</v>
+      </c>
+      <c r="L136" s="21">
+        <v>20.57</v>
+      </c>
+      <c r="M136" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>149</v>
@@ -7967,13 +9935,24 @@
         <v>336</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J137" s="1"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K137" s="19">
+        <v>1</v>
+      </c>
+      <c r="L137" s="21">
+        <v>15.46</v>
+      </c>
+      <c r="M137" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>150</v>
@@ -8001,13 +9980,24 @@
         <v>336</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J138" s="1"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K138" s="19">
+        <v>1</v>
+      </c>
+      <c r="L138" s="21">
+        <v>25.9</v>
+      </c>
+      <c r="M138" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>151</v>
@@ -8035,13 +10025,24 @@
         <v>336</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J139" s="1"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K139" s="19">
+        <v>1</v>
+      </c>
+      <c r="L139" s="21">
+        <v>19.5</v>
+      </c>
+      <c r="M139" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>152</v>
@@ -8069,13 +10070,24 @@
         <v>336</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J140" s="1"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+        <v>682</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K140" s="19">
+        <v>1</v>
+      </c>
+      <c r="L140" s="21">
+        <v>30.9</v>
+      </c>
+      <c r="M140" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>153</v>
@@ -8103,13 +10115,24 @@
         <v>336</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J141" s="1"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K141" s="19">
+        <v>1</v>
+      </c>
+      <c r="L141" s="21">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="M141" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>154</v>
@@ -8137,13 +10160,24 @@
         <v>336</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J142" s="1"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K142" s="19">
+        <v>1</v>
+      </c>
+      <c r="L142" s="21">
+        <v>24.74</v>
+      </c>
+      <c r="M142" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>155</v>
@@ -8171,13 +10205,24 @@
         <v>336</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J143" s="1"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K143" s="19">
+        <v>1</v>
+      </c>
+      <c r="L143" s="21">
+        <v>39.57</v>
+      </c>
+      <c r="M143" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>156</v>
@@ -8205,13 +10250,24 @@
         <v>336</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J144" s="1"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K144" s="19">
+        <v>1</v>
+      </c>
+      <c r="L144" s="21">
+        <v>33.14</v>
+      </c>
+      <c r="M144" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>157</v>
@@ -8239,13 +10295,24 @@
         <v>336</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J145" s="1"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K145" s="19">
+        <v>1</v>
+      </c>
+      <c r="L145" s="21">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="M145" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>158</v>
@@ -8273,13 +10340,24 @@
         <v>336</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J146" s="1"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K146" s="19">
+        <v>1</v>
+      </c>
+      <c r="L146" s="21">
+        <v>42.08</v>
+      </c>
+      <c r="M146" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>159</v>
@@ -8306,14 +10384,25 @@
       <c r="H147" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I147" s="1"/>
+      <c r="I147" s="1" t="s">
+        <v>689</v>
+      </c>
       <c r="J147" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K147" s="19">
+        <v>3</v>
+      </c>
+      <c r="L147" s="21">
+        <v>0.12</v>
+      </c>
+      <c r="M147" s="16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>160</v>
@@ -8340,14 +10429,25 @@
       <c r="H148" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I148" s="1"/>
+      <c r="I148" s="1" t="s">
+        <v>690</v>
+      </c>
       <c r="J148" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K148" s="19">
+        <v>3</v>
+      </c>
+      <c r="L148" s="21">
+        <v>0.24</v>
+      </c>
+      <c r="M148" s="16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>161</v>
@@ -8374,14 +10474,25 @@
       <c r="H149" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I149" s="1"/>
+      <c r="I149" s="1" t="s">
+        <v>691</v>
+      </c>
       <c r="J149" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K149" s="19">
+        <v>3</v>
+      </c>
+      <c r="L149" s="21">
+        <v>0.32</v>
+      </c>
+      <c r="M149" s="16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>162</v>
@@ -8408,14 +10519,25 @@
       <c r="H150" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I150" s="1"/>
+      <c r="I150" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="J150" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K150" s="19">
+        <v>3</v>
+      </c>
+      <c r="L150" s="21">
+        <v>0.53</v>
+      </c>
+      <c r="M150" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>163</v>
@@ -8442,14 +10564,25 @@
       <c r="H151" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I151" s="1"/>
+      <c r="I151" s="1" t="s">
+        <v>693</v>
+      </c>
       <c r="J151" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K151" s="19">
+        <v>3</v>
+      </c>
+      <c r="L151" s="21">
+        <v>0.59</v>
+      </c>
+      <c r="M151" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>164</v>
@@ -8476,14 +10609,25 @@
       <c r="H152" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I152" s="1"/>
+      <c r="I152" s="1" t="s">
+        <v>694</v>
+      </c>
       <c r="J152" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K152" s="19">
+        <v>3</v>
+      </c>
+      <c r="L152" s="21">
+        <v>1.75</v>
+      </c>
+      <c r="M152" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>165</v>
@@ -8510,14 +10654,25 @@
       <c r="H153" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I153" s="1"/>
+      <c r="I153" s="1" t="s">
+        <v>695</v>
+      </c>
       <c r="J153" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K153" s="19">
+        <v>3</v>
+      </c>
+      <c r="L153" s="21">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="M153" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>166</v>
@@ -8544,14 +10699,25 @@
       <c r="H154" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I154" s="1"/>
+      <c r="I154" s="1" t="s">
+        <v>696</v>
+      </c>
       <c r="J154" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K154" s="19">
+        <v>3</v>
+      </c>
+      <c r="L154" s="21">
+        <v>1.45</v>
+      </c>
+      <c r="M154" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>167</v>
@@ -8578,14 +10744,25 @@
       <c r="H155" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I155" s="1"/>
+      <c r="I155" s="1" t="s">
+        <v>697</v>
+      </c>
       <c r="J155" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K155" s="19">
+        <v>3</v>
+      </c>
+      <c r="L155" s="16">
+        <v>0.93</v>
+      </c>
+      <c r="M155" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>168</v>
@@ -8613,11 +10790,22 @@
         <v>336</v>
       </c>
       <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J156" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="K156" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="L156" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="M156" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>169</v>
@@ -8645,11 +10833,20 @@
         <v>336</v>
       </c>
       <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J157" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="K157" s="26"/>
+      <c r="L157" s="27">
+        <v>1.35</v>
+      </c>
+      <c r="M157" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>170</v>
@@ -8677,11 +10874,22 @@
         <v>336</v>
       </c>
       <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J158" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="K158" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="L158" s="23">
+        <v>0.59</v>
+      </c>
+      <c r="M158" s="25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>171</v>
@@ -8709,11 +10917,20 @@
         <v>336</v>
       </c>
       <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J159" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="K159" s="29"/>
+      <c r="L159" s="30">
+        <v>0.49</v>
+      </c>
+      <c r="M159" s="30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>172</v>
@@ -8741,11 +10958,20 @@
         <v>336</v>
       </c>
       <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J160" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K160" s="31"/>
+      <c r="L160" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="M160" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>173</v>
@@ -8773,11 +10999,20 @@
         <v>336</v>
       </c>
       <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J161" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K161" s="31"/>
+      <c r="L161" s="19">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="M161" s="19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>174</v>
@@ -8805,11 +11040,20 @@
         <v>336</v>
       </c>
       <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J162" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="K162" s="19"/>
+      <c r="L162" s="19">
+        <v>0.81</v>
+      </c>
+      <c r="M162" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>175</v>
@@ -8837,11 +11081,20 @@
         <v>336</v>
       </c>
       <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J163" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="K163" s="32"/>
+      <c r="L163" s="19">
+        <v>0.89</v>
+      </c>
+      <c r="M163" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>176</v>
@@ -8869,11 +11122,20 @@
         <v>336</v>
       </c>
       <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J164" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="K164" s="33"/>
+      <c r="L164" s="34">
+        <v>0.89</v>
+      </c>
+      <c r="M164" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>177</v>
@@ -8901,9 +11163,18 @@
         <v>336</v>
       </c>
       <c r="I165" s="1"/>
-      <c r="J165" s="1"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J165" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="K165" s="35"/>
+      <c r="L165" s="34">
+        <v>0.83</v>
+      </c>
+      <c r="M165" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>316</v>
       </c>
@@ -8932,12 +11203,25 @@
       <c r="H166" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I166" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K166" s="15">
+        <v>41</v>
+      </c>
+      <c r="L166" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="M166" s="19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>179</v>
@@ -8964,12 +11248,25 @@
       <c r="H167" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I167" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K167" s="15">
+        <v>41</v>
+      </c>
+      <c r="L167" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="M167" s="19">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>180</v>
@@ -8996,12 +11293,25 @@
       <c r="H168" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I168" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K168" s="15">
+        <v>41</v>
+      </c>
+      <c r="L168" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="M168" s="19">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>181</v>
@@ -9028,12 +11338,25 @@
       <c r="H169" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I169" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K169" s="15">
+        <v>41</v>
+      </c>
+      <c r="L169" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="M169" s="19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>182</v>
@@ -9060,12 +11383,25 @@
       <c r="H170" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I170" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K170" s="15">
+        <v>41</v>
+      </c>
+      <c r="L170" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="M170" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>183</v>
@@ -9092,12 +11428,25 @@
       <c r="H171" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I171" s="1"/>
-      <c r="J171" s="1"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I171" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K171" s="15">
+        <v>41</v>
+      </c>
+      <c r="L171" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="M171" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>184</v>
@@ -9124,12 +11473,25 @@
       <c r="H172" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I172" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K172" s="15">
+        <v>41</v>
+      </c>
+      <c r="L172" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="M172" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>185</v>
@@ -9156,12 +11518,25 @@
       <c r="H173" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I173" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K173" s="15">
+        <v>41</v>
+      </c>
+      <c r="L173" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M173" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>186</v>
@@ -9188,12 +11563,25 @@
       <c r="H174" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I174" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K174" s="15">
+        <v>41</v>
+      </c>
+      <c r="L174" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="M174" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>187</v>
@@ -9220,12 +11608,25 @@
       <c r="H175" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I175" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K175" s="15">
+        <v>41</v>
+      </c>
+      <c r="L175" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="M175" s="19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>188</v>
@@ -9252,12 +11653,25 @@
       <c r="H176" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I176" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K176" s="15">
+        <v>41</v>
+      </c>
+      <c r="L176" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="M176" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>189</v>
@@ -9284,12 +11698,25 @@
       <c r="H177" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I177" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K177" s="15">
+        <v>41</v>
+      </c>
+      <c r="L177" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="M177" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>190</v>
@@ -9316,12 +11743,25 @@
       <c r="H178" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I178" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K178" s="15">
+        <v>41</v>
+      </c>
+      <c r="L178" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="M178" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>191</v>
@@ -9348,12 +11788,25 @@
       <c r="H179" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I179" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K179" s="15">
+        <v>41</v>
+      </c>
+      <c r="L179" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="M179" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>192</v>
@@ -9380,12 +11833,25 @@
       <c r="H180" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I180" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K180" s="15">
+        <v>41</v>
+      </c>
+      <c r="L180" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="M180" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>193</v>
@@ -9412,12 +11878,25 @@
       <c r="H181" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I181" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K181" s="15">
+        <v>41</v>
+      </c>
+      <c r="L181" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="M181" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>194</v>
@@ -9444,12 +11923,25 @@
       <c r="H182" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I182" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K182" s="15">
+        <v>41</v>
+      </c>
+      <c r="L182" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="M182" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>195</v>
@@ -9476,12 +11968,25 @@
       <c r="H183" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I183" s="1"/>
-      <c r="J183" s="1"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I183" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K183" s="15">
+        <v>41</v>
+      </c>
+      <c r="L183" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="M183" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>196</v>
@@ -9508,12 +12013,25 @@
       <c r="H184" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I184" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K184" s="15">
+        <v>41</v>
+      </c>
+      <c r="L184" s="15">
+        <v>0.23</v>
+      </c>
+      <c r="M184" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>197</v>
@@ -9540,12 +12058,25 @@
       <c r="H185" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I185" s="1"/>
-      <c r="J185" s="1"/>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I185" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K185" s="15">
+        <v>41</v>
+      </c>
+      <c r="L185" s="18">
+        <v>0.12</v>
+      </c>
+      <c r="M185" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>198</v>
@@ -9572,12 +12103,25 @@
       <c r="H186" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I186" s="1"/>
-      <c r="J186" s="1"/>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I186" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K186" s="15">
+        <v>41</v>
+      </c>
+      <c r="L186" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="M186" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>199</v>
@@ -9604,12 +12148,25 @@
       <c r="H187" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I187" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K187" s="15">
+        <v>41</v>
+      </c>
+      <c r="L187" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="M187" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>200</v>
@@ -9636,12 +12193,25 @@
       <c r="H188" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I188" s="1"/>
-      <c r="J188" s="1"/>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I188" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K188" s="15">
+        <v>41</v>
+      </c>
+      <c r="L188" s="15">
+        <v>0.37</v>
+      </c>
+      <c r="M188" s="19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>201</v>
@@ -9668,10 +12238,23 @@
       <c r="H189" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I189" s="1"/>
-      <c r="J189" s="1"/>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I189" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K189" s="15">
+        <v>41</v>
+      </c>
+      <c r="L189" s="15">
+        <v>0.36</v>
+      </c>
+      <c r="M189" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>323</v>
       </c>
@@ -9700,12 +12283,25 @@
       <c r="H190" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I190" s="1"/>
-      <c r="J190" s="1"/>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I190" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K190" s="15">
+        <v>41</v>
+      </c>
+      <c r="L190" s="15">
+        <v>0.53</v>
+      </c>
+      <c r="M190" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>203</v>
@@ -9732,10 +12328,23 @@
       <c r="H191" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I191" s="1"/>
-      <c r="J191" s="1"/>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I191" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K191" s="15">
+        <v>41</v>
+      </c>
+      <c r="L191" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="M191" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>332</v>
       </c>
@@ -9764,10 +12373,23 @@
       <c r="H192" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I192" s="1"/>
-      <c r="J192" s="1"/>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I192" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K192" s="15">
+        <v>41</v>
+      </c>
+      <c r="L192" s="15">
+        <v>1.27</v>
+      </c>
+      <c r="M192" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>334</v>
       </c>
@@ -9796,12 +12418,25 @@
       <c r="H193" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I193" s="1"/>
-      <c r="J193" s="1"/>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I193" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K193" s="15">
+        <v>41</v>
+      </c>
+      <c r="L193" s="15">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="M193" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B194" s="5" t="s">
         <v>206</v>
@@ -9828,14 +12463,25 @@
       <c r="H194" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I194" s="1"/>
+      <c r="I194" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J194" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K194" s="16">
+        <v>1</v>
+      </c>
+      <c r="L194" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="M194" s="19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>207</v>
@@ -9862,14 +12508,25 @@
       <c r="H195" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I195" s="1"/>
+      <c r="I195" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J195" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K195" s="16">
+        <v>1</v>
+      </c>
+      <c r="L195" s="16">
+        <v>0.38</v>
+      </c>
+      <c r="M195" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B196" s="5" t="s">
         <v>208</v>
@@ -9896,14 +12553,25 @@
       <c r="H196" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I196" s="1"/>
+      <c r="I196" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J196" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K196" s="15">
+        <v>1</v>
+      </c>
+      <c r="L196" s="15">
+        <v>0.43</v>
+      </c>
+      <c r="M196" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B197" s="5" t="s">
         <v>209</v>
@@ -9930,14 +12598,25 @@
       <c r="H197" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I197" s="1"/>
+      <c r="I197" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J197" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K197" s="15">
+        <v>1</v>
+      </c>
+      <c r="L197" s="15">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M197" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B198" s="5" t="s">
         <v>210</v>
@@ -9964,14 +12643,25 @@
       <c r="H198" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I198" s="1"/>
+      <c r="I198" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J198" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K198" s="15">
+        <v>1</v>
+      </c>
+      <c r="L198" s="15">
+        <v>0.69</v>
+      </c>
+      <c r="M198" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>211</v>
@@ -9998,14 +12688,25 @@
       <c r="H199" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I199" s="1"/>
+      <c r="I199" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J199" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K199" s="15">
+        <v>1</v>
+      </c>
+      <c r="L199" s="15">
+        <v>0.86</v>
+      </c>
+      <c r="M199" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B200" s="5" t="s">
         <v>212</v>
@@ -10032,14 +12733,25 @@
       <c r="H200" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I200" s="1"/>
+      <c r="I200" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J200" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K200" s="15">
+        <v>1</v>
+      </c>
+      <c r="L200" s="15">
+        <v>0.78</v>
+      </c>
+      <c r="M200" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B201" s="5" t="s">
         <v>213</v>
@@ -10066,14 +12778,25 @@
       <c r="H201" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I201" s="1"/>
+      <c r="I201" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J201" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K201" s="15">
+        <v>1</v>
+      </c>
+      <c r="L201" s="15">
+        <v>1.01</v>
+      </c>
+      <c r="M201" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>214</v>
@@ -10100,14 +12823,25 @@
       <c r="H202" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I202" s="1"/>
+      <c r="I202" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J202" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K202" s="15">
+        <v>1</v>
+      </c>
+      <c r="L202" s="15">
+        <v>1.25</v>
+      </c>
+      <c r="M202" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>215</v>
@@ -10134,14 +12868,25 @@
       <c r="H203" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I203" s="1"/>
+      <c r="I203" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J203" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K203" s="15">
+        <v>1</v>
+      </c>
+      <c r="L203" s="15">
+        <v>1.56</v>
+      </c>
+      <c r="M203" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B204" s="5" t="s">
         <v>216</v>
@@ -10168,14 +12913,25 @@
       <c r="H204" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I204" s="1"/>
+      <c r="I204" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J204" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K204" s="15">
+        <v>1</v>
+      </c>
+      <c r="L204" s="19">
+        <v>3.71</v>
+      </c>
+      <c r="M204" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B205" s="5" t="s">
         <v>217</v>
@@ -10202,14 +12958,25 @@
       <c r="H205" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I205" s="1"/>
+      <c r="I205" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J205" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K205" s="15">
+        <v>1</v>
+      </c>
+      <c r="L205" s="19">
+        <v>1.18</v>
+      </c>
+      <c r="M205" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B206" s="5" t="s">
         <v>218</v>
@@ -10236,14 +13003,25 @@
       <c r="H206" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I206" s="1"/>
+      <c r="I206" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J206" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K206" s="15">
+        <v>1</v>
+      </c>
+      <c r="L206" s="19">
+        <v>1.48</v>
+      </c>
+      <c r="M206" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B207" s="5" t="s">
         <v>219</v>
@@ -10270,14 +13048,25 @@
       <c r="H207" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I207" s="1"/>
+      <c r="I207" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J207" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K207" s="15">
+        <v>1</v>
+      </c>
+      <c r="L207" s="19">
+        <v>2.96</v>
+      </c>
+      <c r="M207" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B208" s="5" t="s">
         <v>220</v>
@@ -10304,14 +13093,25 @@
       <c r="H208" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I208" s="1"/>
+      <c r="I208" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J208" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K208" s="15">
+        <v>1</v>
+      </c>
+      <c r="L208" s="15">
+        <v>14.79</v>
+      </c>
+      <c r="M208" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B209" s="5" t="s">
         <v>221</v>
@@ -10338,14 +13138,25 @@
       <c r="H209" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I209" s="1"/>
+      <c r="I209" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J209" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K209" s="15">
+        <v>1</v>
+      </c>
+      <c r="L209" s="15">
+        <v>22.18</v>
+      </c>
+      <c r="M209" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B210" s="5" t="s">
         <v>222</v>
@@ -10372,14 +13183,25 @@
       <c r="H210" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I210" s="1"/>
+      <c r="I210" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J210" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K210" s="15">
+        <v>1</v>
+      </c>
+      <c r="L210" s="15">
+        <v>29.57</v>
+      </c>
+      <c r="M210" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B211" s="5" t="s">
         <v>223</v>
@@ -10406,14 +13228,25 @@
       <c r="H211" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I211" s="1"/>
+      <c r="I211" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J211" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K211" s="15">
+        <v>1</v>
+      </c>
+      <c r="L211" s="34">
+        <v>1.7</v>
+      </c>
+      <c r="M211" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B212" s="5" t="s">
         <v>224</v>
@@ -10440,14 +13273,25 @@
       <c r="H212" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I212" s="1"/>
+      <c r="I212" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J212" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K212" s="15">
+        <v>1</v>
+      </c>
+      <c r="L212" s="19">
+        <v>8.52</v>
+      </c>
+      <c r="M212" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B213" s="5" t="s">
         <v>225</v>
@@ -10474,14 +13318,25 @@
       <c r="H213" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I213" s="1"/>
+      <c r="I213" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J213" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K213" s="15">
+        <v>1</v>
+      </c>
+      <c r="L213" s="15">
+        <v>16.27</v>
+      </c>
+      <c r="M213" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B214" s="5" t="s">
         <v>226</v>
@@ -10508,14 +13363,25 @@
       <c r="H214" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I214" s="1"/>
+      <c r="I214" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J214" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K214" s="15">
+        <v>1</v>
+      </c>
+      <c r="L214" s="15">
+        <v>20.34</v>
+      </c>
+      <c r="M214" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B215" s="5" t="s">
         <v>227</v>
@@ -10542,14 +13408,25 @@
       <c r="H215" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I215" s="1"/>
+      <c r="I215" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J215" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K215" s="15">
+        <v>1</v>
+      </c>
+      <c r="L215" s="15">
+        <v>31.94</v>
+      </c>
+      <c r="M215" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B216" s="5" t="s">
         <v>228</v>
@@ -10576,14 +13453,25 @@
       <c r="H216" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I216" s="1"/>
+      <c r="I216" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J216" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K216" s="15">
+        <v>1</v>
+      </c>
+      <c r="L216" s="15">
+        <v>24.41</v>
+      </c>
+      <c r="M216" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B217" s="5" t="s">
         <v>229</v>
@@ -10610,14 +13498,25 @@
       <c r="H217" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I217" s="1"/>
+      <c r="I217" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J217" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K217" s="15">
+        <v>1</v>
+      </c>
+      <c r="L217" s="15">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="M217" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B218" s="5" t="s">
         <v>230</v>
@@ -10644,14 +13543,25 @@
       <c r="H218" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I218" s="1"/>
+      <c r="I218" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J218" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K218" s="15">
+        <v>1</v>
+      </c>
+      <c r="L218" s="15">
+        <v>40.68</v>
+      </c>
+      <c r="M218" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B219" s="5" t="s">
         <v>231</v>
@@ -10678,14 +13588,25 @@
       <c r="H219" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I219" s="1"/>
+      <c r="I219" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J219" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K219" s="19">
+        <v>1</v>
+      </c>
+      <c r="L219" s="37">
+        <v>2.38</v>
+      </c>
+      <c r="M219" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B220" s="5" t="s">
         <v>232</v>
@@ -10712,14 +13633,25 @@
       <c r="H220" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I220" s="1"/>
+      <c r="I220" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J220" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K220" s="27">
+        <v>1</v>
+      </c>
+      <c r="L220" s="38">
+        <v>3.8</v>
+      </c>
+      <c r="M220" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B221" s="5" t="s">
         <v>233</v>
@@ -10746,14 +13678,25 @@
       <c r="H221" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I221" s="1"/>
+      <c r="I221" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J221" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K221" s="15">
+        <v>1</v>
+      </c>
+      <c r="L221" s="15">
+        <v>23.78</v>
+      </c>
+      <c r="M221" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>234</v>
@@ -10780,14 +13723,25 @@
       <c r="H222" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I222" s="1"/>
+      <c r="I222" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J222" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K222" s="15">
+        <v>1</v>
+      </c>
+      <c r="L222" s="15">
+        <v>29.72</v>
+      </c>
+      <c r="M222" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>235</v>
@@ -10814,14 +13768,25 @@
       <c r="H223" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I223" s="1"/>
+      <c r="I223" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J223" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K223" s="15">
+        <v>1</v>
+      </c>
+      <c r="L223" s="15">
+        <v>47.56</v>
+      </c>
+      <c r="M223" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B224" s="5" t="s">
         <v>236</v>
@@ -10848,14 +13813,25 @@
       <c r="H224" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I224" s="1"/>
+      <c r="I224" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J224" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K224" s="15">
+        <v>1</v>
+      </c>
+      <c r="L224" s="19">
+        <v>7.86</v>
+      </c>
+      <c r="M224" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B225" s="5" t="s">
         <v>237</v>
@@ -10882,14 +13858,25 @@
       <c r="H225" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I225" s="1"/>
+      <c r="I225" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J225" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K225" s="15">
+        <v>1</v>
+      </c>
+      <c r="L225" s="19">
+        <v>10.06</v>
+      </c>
+      <c r="M225" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B226" s="5" t="s">
         <v>238</v>
@@ -10916,14 +13903,25 @@
       <c r="H226" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I226" s="1"/>
+      <c r="I226" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J226" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K226" s="15">
+        <v>1</v>
+      </c>
+      <c r="L226" s="19">
+        <v>12.57</v>
+      </c>
+      <c r="M226" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B227" s="5" t="s">
         <v>239</v>
@@ -10950,14 +13948,25 @@
       <c r="H227" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I227" s="1"/>
+      <c r="I227" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J227" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K227" s="15">
+        <v>1</v>
+      </c>
+      <c r="L227" s="15">
+        <v>15.71</v>
+      </c>
+      <c r="M227" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B228" s="5" t="s">
         <v>240</v>
@@ -10984,14 +13993,25 @@
       <c r="H228" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I228" s="1"/>
+      <c r="I228" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J228" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K228" s="15">
+        <v>1</v>
+      </c>
+      <c r="L228" s="18">
+        <v>19.8</v>
+      </c>
+      <c r="M228" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B229" s="5" t="s">
         <v>241</v>
@@ -11018,14 +14038,25 @@
       <c r="H229" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I229" s="1"/>
+      <c r="I229" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J229" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K229" s="15">
+        <v>1</v>
+      </c>
+      <c r="L229" s="15">
+        <v>25.14</v>
+      </c>
+      <c r="M229" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>242</v>
@@ -11052,14 +14083,25 @@
       <c r="H230" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I230" s="1"/>
+      <c r="I230" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J230" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K230" s="15">
+        <v>1</v>
+      </c>
+      <c r="L230" s="15">
+        <v>31.42</v>
+      </c>
+      <c r="M230" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>243</v>
@@ -11086,14 +14128,25 @@
       <c r="H231" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I231" s="1"/>
+      <c r="I231" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J231" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K231" s="15">
+        <v>1</v>
+      </c>
+      <c r="L231" s="15">
+        <v>39.28</v>
+      </c>
+      <c r="M231" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>244</v>
@@ -11120,14 +14173,25 @@
       <c r="H232" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I232" s="1"/>
+      <c r="I232" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J232" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K232" s="15">
+        <v>1</v>
+      </c>
+      <c r="L232" s="15">
+        <v>47.13</v>
+      </c>
+      <c r="M232" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B233" s="5" t="s">
         <v>245</v>
@@ -11154,14 +14218,25 @@
       <c r="H233" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I233" s="1"/>
+      <c r="I233" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="J233" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K233" s="15">
+        <v>1</v>
+      </c>
+      <c r="L233" s="15">
+        <v>62.85</v>
+      </c>
+      <c r="M233" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B234" s="5" t="s">
         <v>246</v>
@@ -11188,12 +14263,25 @@
       <c r="H234" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I234" s="1"/>
-      <c r="J234" s="1"/>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I234" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K234" s="15">
+        <v>1</v>
+      </c>
+      <c r="L234" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="M234" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B235" s="5" t="s">
         <v>247</v>
@@ -11220,12 +14308,25 @@
       <c r="H235" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I235" s="1"/>
-      <c r="J235" s="1"/>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I235" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K235" s="15">
+        <v>1</v>
+      </c>
+      <c r="L235" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="M235" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B236" s="5" t="s">
         <v>248</v>
@@ -11252,12 +14353,25 @@
       <c r="H236" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I236" s="1"/>
-      <c r="J236" s="1"/>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I236" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K236" s="15">
+        <v>1</v>
+      </c>
+      <c r="L236" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M236" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B237" s="5" t="s">
         <v>249</v>
@@ -11284,12 +14398,25 @@
       <c r="H237" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I237" s="1"/>
-      <c r="J237" s="1"/>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I237" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K237" s="15">
+        <v>1</v>
+      </c>
+      <c r="L237" s="19">
+        <v>0.19</v>
+      </c>
+      <c r="M237" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B238" s="5" t="s">
         <v>250</v>
@@ -11316,12 +14443,25 @@
       <c r="H238" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I238" s="1"/>
-      <c r="J238" s="1"/>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I238" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J238" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K238" s="15">
+        <v>1</v>
+      </c>
+      <c r="L238" s="19">
+        <v>0.24</v>
+      </c>
+      <c r="M238" s="19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B239" s="5" t="s">
         <v>251</v>
@@ -11348,12 +14488,25 @@
       <c r="H239" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I239" s="1"/>
-      <c r="J239" s="1"/>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I239" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J239" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K239" s="15">
+        <v>1</v>
+      </c>
+      <c r="L239" s="19">
+        <v>0.48</v>
+      </c>
+      <c r="M239" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B240" s="5" t="s">
         <v>252</v>
@@ -11380,12 +14533,25 @@
       <c r="H240" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I240" s="1"/>
-      <c r="J240" s="1"/>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I240" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J240" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K240" s="15">
+        <v>1</v>
+      </c>
+      <c r="L240" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="M240" s="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B241" s="5" t="s">
         <v>253</v>
@@ -11412,12 +14578,25 @@
       <c r="H241" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I241" s="1"/>
-      <c r="J241" s="1"/>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I241" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J241" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K241" s="15">
+        <v>1</v>
+      </c>
+      <c r="L241" s="19">
+        <v>0.21</v>
+      </c>
+      <c r="M241" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B242" s="5" t="s">
         <v>254</v>
@@ -11444,12 +14623,25 @@
       <c r="H242" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I242" s="1"/>
-      <c r="J242" s="1"/>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I242" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K242" s="15">
+        <v>1</v>
+      </c>
+      <c r="L242" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M242" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B243" s="5" t="s">
         <v>255</v>
@@ -11476,12 +14668,25 @@
       <c r="H243" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I243" s="1"/>
-      <c r="J243" s="1"/>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I243" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J243" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K243" s="15">
+        <v>1</v>
+      </c>
+      <c r="L243" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="M243" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B244" s="5" t="s">
         <v>256</v>
@@ -11508,12 +14713,25 @@
       <c r="H244" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I244" s="1"/>
-      <c r="J244" s="1"/>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I244" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K244" s="15">
+        <v>1</v>
+      </c>
+      <c r="L244" s="15">
+        <v>0.46</v>
+      </c>
+      <c r="M244" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B245" s="5" t="s">
         <v>257</v>
@@ -11540,12 +14758,25 @@
       <c r="H245" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I245" s="1"/>
-      <c r="J245" s="1"/>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I245" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J245" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K245" s="15">
+        <v>1</v>
+      </c>
+      <c r="L245" s="15">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M245" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B246" s="5" t="s">
         <v>258</v>
@@ -11572,12 +14803,25 @@
       <c r="H246" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I246" s="1"/>
-      <c r="J246" s="1"/>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I246" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J246" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K246" s="15">
+        <v>1</v>
+      </c>
+      <c r="L246" s="15">
+        <v>0.71</v>
+      </c>
+      <c r="M246" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B247" s="5" t="s">
         <v>259</v>
@@ -11604,12 +14848,25 @@
       <c r="H247" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I247" s="1"/>
-      <c r="J247" s="1"/>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I247" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K247" s="15">
+        <v>1</v>
+      </c>
+      <c r="L247" s="15">
+        <v>0.89</v>
+      </c>
+      <c r="M247" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B248" s="5" t="s">
         <v>260</v>
@@ -11636,12 +14893,25 @@
       <c r="H248" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I248" s="1"/>
-      <c r="J248" s="1"/>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I248" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J248" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K248" s="15">
+        <v>1</v>
+      </c>
+      <c r="L248" s="15">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M248" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B249" s="5" t="s">
         <v>261</v>
@@ -11668,12 +14938,25 @@
       <c r="H249" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I249" s="1"/>
-      <c r="J249" s="1"/>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I249" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J249" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K249" s="15">
+        <v>1</v>
+      </c>
+      <c r="L249" s="15">
+        <v>0.49</v>
+      </c>
+      <c r="M249" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B250" s="5" t="s">
         <v>262</v>
@@ -11700,12 +14983,25 @@
       <c r="H250" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I250" s="1"/>
-      <c r="J250" s="1"/>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I250" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K250" s="15">
+        <v>1</v>
+      </c>
+      <c r="L250" s="34">
+        <v>0.78</v>
+      </c>
+      <c r="M250" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B251" s="5" t="s">
         <v>263</v>
@@ -11732,12 +15028,25 @@
       <c r="H251" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I251" s="1"/>
-      <c r="J251" s="1"/>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I251" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K251" s="15">
+        <v>1</v>
+      </c>
+      <c r="L251" s="34">
+        <v>0.98</v>
+      </c>
+      <c r="M251" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B252" s="5" t="s">
         <v>264</v>
@@ -11764,12 +15073,25 @@
       <c r="H252" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I252" s="1"/>
-      <c r="J252" s="1"/>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I252" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J252" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K252" s="15">
+        <v>1</v>
+      </c>
+      <c r="L252" s="39">
+        <v>1.22</v>
+      </c>
+      <c r="M252" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B253" s="5" t="s">
         <v>265</v>
@@ -11796,12 +15118,25 @@
       <c r="H253" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I253" s="1"/>
-      <c r="J253" s="1"/>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I253" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K253" s="15">
+        <v>1</v>
+      </c>
+      <c r="L253" s="15">
+        <v>0.64</v>
+      </c>
+      <c r="M253" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B254" s="5" t="s">
         <v>266</v>
@@ -11828,12 +15163,25 @@
       <c r="H254" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I254" s="1"/>
-      <c r="J254" s="1"/>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I254" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K254" s="15">
+        <v>1</v>
+      </c>
+      <c r="L254" s="15">
+        <v>1.03</v>
+      </c>
+      <c r="M254" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B255" s="5" t="s">
         <v>267</v>
@@ -11860,12 +15208,25 @@
       <c r="H255" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I255" s="1"/>
-      <c r="J255" s="1"/>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I255" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K255" s="15">
+        <v>1</v>
+      </c>
+      <c r="L255" s="15">
+        <v>1.29</v>
+      </c>
+      <c r="M255" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B256" s="5" t="s">
         <v>268</v>
@@ -11892,12 +15253,25 @@
       <c r="H256" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I256" s="1"/>
-      <c r="J256" s="1"/>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I256" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K256" s="15">
+        <v>1</v>
+      </c>
+      <c r="L256" s="15">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="M256" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B257" s="5" t="s">
         <v>269</v>
@@ -11924,12 +15298,25 @@
       <c r="H257" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I257" s="1"/>
-      <c r="J257" s="1"/>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I257" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J257" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K257" s="15">
+        <v>1</v>
+      </c>
+      <c r="L257" s="15">
+        <v>3.24</v>
+      </c>
+      <c r="M257" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B258" s="5" t="s">
         <v>270</v>
@@ -11956,12 +15343,25 @@
       <c r="H258" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I258" s="1"/>
-      <c r="J258" s="1"/>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I258" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K258" s="15">
+        <v>1</v>
+      </c>
+      <c r="L258" s="15">
+        <v>3.74</v>
+      </c>
+      <c r="M258" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B259" s="5" t="s">
         <v>271</v>
@@ -11988,12 +15388,25 @@
       <c r="H259" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I259" s="1"/>
-      <c r="J259" s="1"/>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I259" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J259" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K259" s="15">
+        <v>1</v>
+      </c>
+      <c r="L259" s="15">
+        <v>4.87</v>
+      </c>
+      <c r="M259" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B260" s="5" t="s">
         <v>272</v>
@@ -12020,12 +15433,25 @@
       <c r="H260" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I260" s="1"/>
-      <c r="J260" s="1"/>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I260" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J260" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K260" s="15">
+        <v>1</v>
+      </c>
+      <c r="L260" s="18">
+        <v>7.01</v>
+      </c>
+      <c r="M260" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B261" s="5" t="s">
         <v>273</v>
@@ -12052,14 +15478,25 @@
       <c r="H261" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I261" s="1"/>
+      <c r="I261" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="J261" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K261" s="15">
+        <v>1</v>
+      </c>
+      <c r="L261" s="18">
+        <v>23.66</v>
+      </c>
+      <c r="M261" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B262" s="5" t="s">
         <v>274</v>
@@ -12086,14 +15523,25 @@
       <c r="H262" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I262" s="1"/>
+      <c r="I262" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="J262" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K262" s="15">
+        <v>1</v>
+      </c>
+      <c r="L262" s="18">
+        <v>2.12</v>
+      </c>
+      <c r="M262" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B263" s="5" t="s">
         <v>275</v>
@@ -12120,14 +15568,25 @@
       <c r="H263" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I263" s="1"/>
+      <c r="I263" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="J263" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K263" s="15">
+        <v>1</v>
+      </c>
+      <c r="L263" s="18">
+        <v>3.25</v>
+      </c>
+      <c r="M263" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B264" s="5" t="s">
         <v>276</v>
@@ -12154,14 +15613,25 @@
       <c r="H264" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I264" s="1"/>
+      <c r="I264" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="J264" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K264" s="15">
+        <v>1</v>
+      </c>
+      <c r="L264" s="18">
+        <v>10.65</v>
+      </c>
+      <c r="M264" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>277</v>
@@ -12188,14 +15658,25 @@
       <c r="H265" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I265" s="1"/>
+      <c r="I265" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="J265" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K265" s="15">
+        <v>1</v>
+      </c>
+      <c r="L265" s="18">
+        <v>13.41</v>
+      </c>
+      <c r="M265" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B266" s="5" t="s">
         <v>278</v>
@@ -12222,14 +15703,25 @@
       <c r="H266" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I266" s="1"/>
+      <c r="I266" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="J266" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K266" s="15">
+        <v>1</v>
+      </c>
+      <c r="L266" s="18">
+        <v>10.25</v>
+      </c>
+      <c r="M266" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B267" s="5" t="s">
         <v>279</v>
@@ -12256,14 +15748,25 @@
       <c r="H267" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I267" s="1"/>
+      <c r="I267" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="J267" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K267" s="15">
+        <v>1</v>
+      </c>
+      <c r="L267" s="18">
+        <v>17.03</v>
+      </c>
+      <c r="M267" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B268" s="5" t="s">
         <v>280</v>
@@ -12290,14 +15793,25 @@
       <c r="H268" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I268" s="1"/>
+      <c r="I268" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="J268" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K268" s="15">
+        <v>1</v>
+      </c>
+      <c r="L268" s="15">
+        <v>13.02</v>
+      </c>
+      <c r="M268" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B269" s="5" t="s">
         <v>281</v>
@@ -12324,14 +15838,25 @@
       <c r="H269" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I269" s="1"/>
+      <c r="I269" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="J269" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K269" s="15">
+        <v>1</v>
+      </c>
+      <c r="L269" s="15">
+        <v>21.29</v>
+      </c>
+      <c r="M269" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B270" s="5" t="s">
         <v>282</v>
@@ -12358,14 +15883,25 @@
       <c r="H270" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I270" s="1"/>
+      <c r="I270" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="J270" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K270" s="15">
+        <v>1</v>
+      </c>
+      <c r="L270" s="15">
+        <v>20.34</v>
+      </c>
+      <c r="M270" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B271" s="5" t="s">
         <v>283</v>
@@ -12392,14 +15928,25 @@
       <c r="H271" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I271" s="1"/>
+      <c r="I271" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="J271" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K271" s="15">
+        <v>1</v>
+      </c>
+      <c r="L271" s="15">
+        <v>31.94</v>
+      </c>
+      <c r="M271" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B272" s="5" t="s">
         <v>284</v>
@@ -12426,14 +15973,25 @@
       <c r="H272" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I272" s="1"/>
+      <c r="I272" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="J272" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K272" s="15">
+        <v>1</v>
+      </c>
+      <c r="L272" s="15">
+        <v>24.41</v>
+      </c>
+      <c r="M272" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B273" s="5" t="s">
         <v>285</v>
@@ -12460,14 +16018,25 @@
       <c r="H273" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I273" s="1"/>
+      <c r="I273" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="J273" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K273" s="15">
+        <v>1</v>
+      </c>
+      <c r="L273" s="15">
+        <v>42.59</v>
+      </c>
+      <c r="M273" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B274" s="5" t="s">
         <v>286</v>
@@ -12494,14 +16063,25 @@
       <c r="H274" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I274" s="1"/>
+      <c r="I274" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="J274" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K274" s="15">
+        <v>1</v>
+      </c>
+      <c r="L274" s="15">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="M274" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B275" s="5" t="s">
         <v>287</v>
@@ -12528,14 +16108,25 @@
       <c r="H275" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I275" s="1"/>
+      <c r="I275" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="J275" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="K275" s="15">
+        <v>1</v>
+      </c>
+      <c r="L275" s="15">
+        <v>53.23</v>
+      </c>
+      <c r="M275" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B276" s="5" t="s">
         <v>288</v>
@@ -12562,14 +16153,26 @@
       <c r="H276" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I276" s="1"/>
+      <c r="I276" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="J276" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
+      </c>
+      <c r="K276" s="15">
+        <v>1</v>
+      </c>
+      <c r="L276" s="15">
+        <v>23.78</v>
+      </c>
+      <c r="M276" s="19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12588,14 +16191,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
